--- a/content/species/data/summarised_rli_plants.xlsx
+++ b/content/species/data/summarised_rli_plants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sanbiorgza-my.sharepoint.com/personal/d_vandercolff_sanbi_org_za/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73C8037C-9D3B-48B7-ABBD-CC7011355429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633CA157-1EA8-4003-B640-117BCF899318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
   <si>
     <t>Biome</t>
   </si>
@@ -85,12 +85,15 @@
   <si>
     <t>Grassland</t>
   </si>
+  <si>
+    <t>Forests</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,19 +446,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -483,16 +486,16 @@
         <v>1990</v>
       </c>
       <c r="C2">
-        <v>0.950402825934903</v>
+        <v>0.95086826292113602</v>
       </c>
       <c r="D2">
-        <v>0.95290070834115603</v>
+        <v>0.95284026527353505</v>
       </c>
       <c r="E2">
-        <v>0.95425712733926804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.95419883448951004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -500,16 +503,16 @@
         <v>1991</v>
       </c>
       <c r="C3">
-        <v>0.95040451537524195</v>
+        <v>0.95078169618543795</v>
       </c>
       <c r="D3">
-        <v>0.95277542001327897</v>
+        <v>0.95270824779020402</v>
       </c>
       <c r="E3">
-        <v>0.95417163415935202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.95408251806023603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -517,16 +520,16 @@
         <v>1992</v>
       </c>
       <c r="C4">
-        <v>0.95040281773178403</v>
+        <v>0.95066048488452504</v>
       </c>
       <c r="D4">
-        <v>0.95272308469371603</v>
+        <v>0.95263175840875802</v>
       </c>
       <c r="E4">
-        <v>0.95409094447391596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.954024317953307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -534,16 +537,16 @@
         <v>1993</v>
       </c>
       <c r="C5">
-        <v>0.950337179486344</v>
+        <v>0.950622874783009</v>
       </c>
       <c r="D5">
-        <v>0.95244520842412905</v>
+        <v>0.95243869372326195</v>
       </c>
       <c r="E5">
-        <v>0.95385312562330504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.95366522547566701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -551,16 +554,16 @@
         <v>1994</v>
       </c>
       <c r="C6">
-        <v>0.95005171425983803</v>
+        <v>0.95054905304437798</v>
       </c>
       <c r="D6">
-        <v>0.95229388065093001</v>
+        <v>0.95220067718901602</v>
       </c>
       <c r="E6">
-        <v>0.95361543704760798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.95352398515217596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -568,16 +571,16 @@
         <v>1995</v>
       </c>
       <c r="C7">
-        <v>0.95004051081422802</v>
+        <v>0.95029471218160699</v>
       </c>
       <c r="D7">
-        <v>0.952125139674455</v>
+        <v>0.95198916658676502</v>
       </c>
       <c r="E7">
-        <v>0.95335172012054303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.95330657430681898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -585,16 +588,16 @@
         <v>1996</v>
       </c>
       <c r="C8">
-        <v>0.94996569432183098</v>
+        <v>0.950210149758279</v>
       </c>
       <c r="D8">
-        <v>0.95191222702983003</v>
+        <v>0.95181672633310599</v>
       </c>
       <c r="E8">
-        <v>0.95313384620363095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.95304095243195297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -602,16 +605,16 @@
         <v>1997</v>
       </c>
       <c r="C9">
-        <v>0.94974861995499904</v>
+        <v>0.94999568076321095</v>
       </c>
       <c r="D9">
-        <v>0.951694845118919</v>
+        <v>0.95162258618946904</v>
       </c>
       <c r="E9">
-        <v>0.95284363480022405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.952814177582477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -619,16 +622,16 @@
         <v>1998</v>
       </c>
       <c r="C10">
-        <v>0.94962383689534902</v>
+        <v>0.94986237088532299</v>
       </c>
       <c r="D10">
-        <v>0.95147408334626105</v>
+        <v>0.95143277145728899</v>
       </c>
       <c r="E10">
-        <v>0.95268552709802601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.95263961408878595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -636,16 +639,16 @@
         <v>1999</v>
       </c>
       <c r="C11">
-        <v>0.94952950033838701</v>
+        <v>0.949685697164381</v>
       </c>
       <c r="D11">
-        <v>0.95129510812006701</v>
+        <v>0.95123736387907898</v>
       </c>
       <c r="E11">
-        <v>0.95246222774882905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.95238687319559301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -653,16 +656,16 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0.94933158029449605</v>
+        <v>0.949580866691355</v>
       </c>
       <c r="D12">
-        <v>0.951136748465782</v>
+        <v>0.95102015405503904</v>
       </c>
       <c r="E12">
-        <v>0.95226833347224304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.95221806210098503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -670,16 +673,16 @@
         <v>2001</v>
       </c>
       <c r="C13">
-        <v>0.94903513119942295</v>
+        <v>0.94937320448368101</v>
       </c>
       <c r="D13">
-        <v>0.95090500680533296</v>
+        <v>0.95083251869353602</v>
       </c>
       <c r="E13">
-        <v>0.95201316275346504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.95197279112077404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -687,16 +690,16 @@
         <v>2002</v>
       </c>
       <c r="C14">
-        <v>0.948839861994906</v>
+        <v>0.94913088917246702</v>
       </c>
       <c r="D14">
-        <v>0.95071948793371597</v>
+        <v>0.95065137235338304</v>
       </c>
       <c r="E14">
-        <v>0.95184950808670099</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.95174488843958605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -704,16 +707,16 @@
         <v>2003</v>
       </c>
       <c r="C15">
-        <v>0.94868384407405004</v>
+        <v>0.94902718443059997</v>
       </c>
       <c r="D15">
-        <v>0.95050012405893103</v>
+        <v>0.95043203529248499</v>
       </c>
       <c r="E15">
-        <v>0.95167412866319301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.95155083735380197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -721,16 +724,16 @@
         <v>2004</v>
       </c>
       <c r="C16">
-        <v>0.94852170752528897</v>
+        <v>0.94882497947837896</v>
       </c>
       <c r="D16">
-        <v>0.95030000801717895</v>
+        <v>0.95023970709652805</v>
       </c>
       <c r="E16">
-        <v>0.95149697002437095</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.95135800847883301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -738,16 +741,16 @@
         <v>2005</v>
       </c>
       <c r="C17">
-        <v>0.94832571174840896</v>
+        <v>0.94862321821656304</v>
       </c>
       <c r="D17">
-        <v>0.95010628176241796</v>
+        <v>0.950075376766225</v>
       </c>
       <c r="E17">
-        <v>0.95133928164894599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.95118424569791504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -755,16 +758,16 @@
         <v>2006</v>
       </c>
       <c r="C18">
-        <v>0.94809177508482301</v>
+        <v>0.948291242845968</v>
       </c>
       <c r="D18">
-        <v>0.94994492873187497</v>
+        <v>0.94984896391454399</v>
       </c>
       <c r="E18">
-        <v>0.95110402462202104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.95094834303439202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -772,16 +775,16 @@
         <v>2007</v>
       </c>
       <c r="C19">
-        <v>0.94787189836522501</v>
+        <v>0.94808472693406898</v>
       </c>
       <c r="D19">
-        <v>0.94975029783112697</v>
+        <v>0.94964111530342399</v>
       </c>
       <c r="E19">
-        <v>0.95093503837126203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.95078097115160798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -789,16 +792,16 @@
         <v>2008</v>
       </c>
       <c r="C20">
-        <v>0.94747229830912405</v>
+        <v>0.94799804273230404</v>
       </c>
       <c r="D20">
-        <v>0.94950645184487303</v>
+        <v>0.94945235399199501</v>
       </c>
       <c r="E20">
-        <v>0.95071792478359596</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.95063740120566398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -806,16 +809,16 @@
         <v>2009</v>
       </c>
       <c r="C21">
-        <v>0.947319917894478</v>
+        <v>0.94769937303601604</v>
       </c>
       <c r="D21">
-        <v>0.94938082313975203</v>
+        <v>0.94925521652145795</v>
       </c>
       <c r="E21">
-        <v>0.95057280337066297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.95048068282305398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -823,16 +826,16 @@
         <v>2010</v>
       </c>
       <c r="C22">
-        <v>0.94690871675051502</v>
+        <v>0.94744296282079998</v>
       </c>
       <c r="D22">
-        <v>0.94912818336337901</v>
+        <v>0.94909712257914602</v>
       </c>
       <c r="E22">
-        <v>0.95040210181861595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.95024468461746303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -840,16 +843,16 @@
         <v>2011</v>
       </c>
       <c r="C23">
-        <v>0.94674444594665896</v>
+        <v>0.94708882934767102</v>
       </c>
       <c r="D23">
-        <v>0.94896545340090399</v>
+        <v>0.94889332634224899</v>
       </c>
       <c r="E23">
-        <v>0.95026032959915796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.950023517600326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -857,16 +860,16 @@
         <v>2012</v>
       </c>
       <c r="C24">
-        <v>0.94654717025559498</v>
+        <v>0.94696084647711198</v>
       </c>
       <c r="D24">
-        <v>0.94878407664077502</v>
+        <v>0.94873443344833697</v>
       </c>
       <c r="E24">
-        <v>0.95001853739617304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.94992330973765604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -874,16 +877,16 @@
         <v>2013</v>
       </c>
       <c r="C25">
-        <v>0.94612162468972405</v>
+        <v>0.94669601223530697</v>
       </c>
       <c r="D25">
-        <v>0.94858533912779397</v>
+        <v>0.94853505597711496</v>
       </c>
       <c r="E25">
-        <v>0.949860258991574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.94974451701940699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -891,16 +894,16 @@
         <v>2014</v>
       </c>
       <c r="C26">
-        <v>0.94586421864443704</v>
+        <v>0.94633502691721305</v>
       </c>
       <c r="D26">
-        <v>0.94839195474036098</v>
+        <v>0.94833724058200797</v>
       </c>
       <c r="E26">
-        <v>0.94974259034129005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.94958725121325105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -908,16 +911,16 @@
         <v>2015</v>
       </c>
       <c r="C27">
-        <v>0.94547691291819302</v>
+        <v>0.94616173653812197</v>
       </c>
       <c r="D27">
-        <v>0.94821608121003398</v>
+        <v>0.94808635069109803</v>
       </c>
       <c r="E27">
-        <v>0.94953324154638497</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.94948104557132995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -925,16 +928,16 @@
         <v>2016</v>
       </c>
       <c r="C28">
-        <v>0.94519286440126604</v>
+        <v>0.945946364430019</v>
       </c>
       <c r="D28">
-        <v>0.94802264159151906</v>
+        <v>0.94795816471676297</v>
       </c>
       <c r="E28">
-        <v>0.949409183566163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.94927226399420594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -942,16 +945,16 @@
         <v>2017</v>
       </c>
       <c r="C29">
-        <v>0.94452609379520303</v>
+        <v>0.94511017256630103</v>
       </c>
       <c r="D29">
-        <v>0.94732062206017498</v>
+        <v>0.94733173100933998</v>
       </c>
       <c r="E29">
-        <v>0.94918482219709799</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.948998460963145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -959,16 +962,16 @@
         <v>2018</v>
       </c>
       <c r="C30">
-        <v>0.94212651738373798</v>
+        <v>0.94308244274952402</v>
       </c>
       <c r="D30">
-        <v>0.94627006272035896</v>
+        <v>0.94639358079731295</v>
       </c>
       <c r="E30">
-        <v>0.94878359071887997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.94853870725812595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -976,16 +979,16 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>0.94004143028738396</v>
+        <v>0.94084316144576896</v>
       </c>
       <c r="D31">
-        <v>0.94435322707201697</v>
+        <v>0.94498311811876401</v>
       </c>
       <c r="E31">
-        <v>0.94837088798173896</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.94812928959319298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -993,16 +996,16 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>0.93742382450667705</v>
+        <v>0.93890127720662298</v>
       </c>
       <c r="D32">
-        <v>0.94230459719133297</v>
+        <v>0.94264934695348201</v>
       </c>
       <c r="E32">
-        <v>0.94709103173013198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.94705621261672401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1010,16 +1013,16 @@
         <v>2021</v>
       </c>
       <c r="C33">
-        <v>0.93467829169294503</v>
+        <v>0.936143339602861</v>
       </c>
       <c r="D33">
-        <v>0.93984798244640599</v>
+        <v>0.94037708487034499</v>
       </c>
       <c r="E33">
-        <v>0.94415396203750301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.94475901451715205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1027,16 +1030,16 @@
         <v>2022</v>
       </c>
       <c r="C34">
-        <v>0.93201262994404499</v>
+        <v>0.93360021473550603</v>
       </c>
       <c r="D34">
-        <v>0.93708940453531497</v>
+        <v>0.93853894095923995</v>
       </c>
       <c r="E34">
-        <v>0.94172185171975897</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.94219561450865497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1044,16 +1047,16 @@
         <v>2023</v>
       </c>
       <c r="C35">
-        <v>0.92957402959144197</v>
+        <v>0.93137986758134705</v>
       </c>
       <c r="D35">
-        <v>0.934720598592237</v>
+        <v>0.93590642814234704</v>
       </c>
       <c r="E35">
-        <v>0.93950277422230699</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.94042647258373702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1061,16 +1064,16 @@
         <v>2024</v>
       </c>
       <c r="C36">
-        <v>0.92893379008787802</v>
+        <v>0.93047599649977297</v>
       </c>
       <c r="D36">
-        <v>0.93358855660223405</v>
+        <v>0.93488832185706805</v>
       </c>
       <c r="E36">
-        <v>0.93742232906646905</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.93829708022972602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1078,16 +1081,16 @@
         <v>2025</v>
       </c>
       <c r="C37">
-        <v>0.927863238167011</v>
+        <v>0.92976825866919099</v>
       </c>
       <c r="D37">
-        <v>0.93215909433944399</v>
+        <v>0.93349892699743797</v>
       </c>
       <c r="E37">
-        <v>0.93514336781903296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0.93672353243611395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
         <v>13</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
         <v>14</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
         <v>14</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
         <v>14</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
         <v>15</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
         <v>15</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
         <v>15</v>
       </c>
@@ -1624,6 +1627,66 @@
         <v>0.96736401673640204</v>
       </c>
       <c r="F64" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1990</v>
+      </c>
+      <c r="C65">
+        <v>0.94727272727272704</v>
+      </c>
+      <c r="D65">
+        <v>0.95272727272727298</v>
+      </c>
+      <c r="E65">
+        <v>0.95272727272727298</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C66">
+        <v>0.941818181818182</v>
+      </c>
+      <c r="D66">
+        <v>0.94727272727272704</v>
+      </c>
+      <c r="E66">
+        <v>0.94727272727272704</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C67">
+        <v>0.94545454545454599</v>
+      </c>
+      <c r="D67">
+        <v>0.94909090909090899</v>
+      </c>
+      <c r="E67">
+        <v>0.94909090909090998</v>
+      </c>
+      <c r="F67" s="2">
         <v>2025</v>
       </c>
     </row>
@@ -1905,15 +1968,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d08e37f2-beba-4595-a3e8-aa91f032b3fc" xsi:nil="true"/>
@@ -1926,14 +1980,51 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB1FB19-15B6-439B-B90F-2F605DCE220F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB1FB19-15B6-439B-B90F-2F605DCE220F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
+    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9068939B-D0DD-4ABE-8775-855977AE97A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E66F1958-E97A-4E09-AC8B-CE36F952F14B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E66F1958-E97A-4E09-AC8B-CE36F952F14B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9068939B-D0DD-4ABE-8775-855977AE97A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>